--- a/src/com/bivc/cimsmgs/xls/ZESTAWIENIA WYDAN KONTENEROW NA SAMOCHODY.xlsx
+++ b/src/com/bivc/cimsmgs/xls/ZESTAWIENIA WYDAN KONTENEROW NA SAMOCHODY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-19305" yWindow="-105" windowWidth="19395" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>PUH AGROSTOP SP. Z O.O.</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>LP</t>
+  </si>
+  <si>
+    <t>NR POCIĄGU</t>
+  </si>
+  <si>
+    <t>NR LISTU SMGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA WYDANIA </t>
   </si>
   <si>
     <t xml:space="preserve">            WYKAZ  WYDANYCH KONTENERÓW NA SAMOCHODY W DNIU </t>
@@ -95,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -337,17 +346,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -389,6 +444,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -713,22 +784,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -738,8 +815,11 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -749,8 +829,11 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -760,78 +843,105 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -839,8 +949,11 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -848,8 +961,11 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -857,8 +973,11 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -866,8 +985,11 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -875,8 +997,11 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -884,13 +1009,16 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="10000" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>